--- a/homework.xlsx
+++ b/homework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\OneDrive\바탕 화면\C3Cube-Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE81F1-6FD5-445D-BA53-787C11004E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC231881-4195-494D-9421-BA607EA0A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21075" yWindow="4665" windowWidth="15330" windowHeight="10890" xr2:uid="{CDFF960E-C538-493E-8F04-F63B1A8350B7}"/>
+    <workbookView xWindow="13470" yWindow="4425" windowWidth="15330" windowHeight="10890" xr2:uid="{CDFF960E-C538-493E-8F04-F63B1A8350B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>CD-P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CD-P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD-C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD-C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,11 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>codeup.kr
-Python 기초 100제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>씨큐브 저지사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난이도 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>난이도 하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +119,78 @@
   </si>
   <si>
     <t>자유주제 - 수업 내용 활용하여 노트 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup.kr
+Python 기초 100제
+C 기초 100제
+추가 기출(정올 1번 수준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2623(gcd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4561(odd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기출(준비)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기출(미완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 100제 : 난이도 중
+추가 기출 : 난이도 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 1010-1017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 6009-6016 (6015, 6016 split 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python If-Else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String Split and Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 6032-6035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String Split and Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지오(SIS) 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박시우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 4561 (홀수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 2623 (최대공약수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유주제 csv 파일 분석 + 꺾은선 그래프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +252,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -212,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +306,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DE9F00-5939-4442-9C97-3E67D9434F02}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,149 +647,292 @@
     <col min="1" max="1" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1">
+        <v>9</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1">
+        <v>11</v>
+      </c>
+      <c r="M22" s="1">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1">
-        <v>11</v>
-      </c>
-      <c r="M8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="B1:B15"/>
+    <mergeCell ref="C1:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\OneDrive\바탕 화면\C3Cube-Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC231881-4195-494D-9421-BA607EA0A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465715B8-6C6B-4499-9E8E-C43D10E590D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="4425" windowWidth="15330" windowHeight="10890" xr2:uid="{CDFF960E-C538-493E-8F04-F63B1A8350B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDFF960E-C538-493E-8F04-F63B1A8350B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>CD-P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>자유주제 csv 파일 분석 + 꺾은선 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 1018-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 6036-6042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유주제 csv 파일 분석 + 막대/항아리 그래프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +659,7 @@
     <col min="1" max="1" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -886,6 +898,9 @@
       <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -894,6 +909,9 @@
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -905,6 +923,9 @@
       <c r="C26" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="D26" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -912,6 +933,9 @@
       </c>
       <c r="C27" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\OneDrive\바탕 화면\C3Cube-Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\C3Cube-Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465715B8-6C6B-4499-9E8E-C43D10E590D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC18C7-D6D2-4C45-BE9C-DCCDF1093D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDFF960E-C538-493E-8F04-F63B1A8350B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>CD-P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,26 @@
   </si>
   <si>
     <t>자유주제 csv 파일 분석 + 막대/항아리 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 6017-6020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 4012 (석차계산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4012(석차계산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeup : 1025-1030</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DE9F00-5939-4442-9C97-3E67D9434F02}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,7 +723,9 @@
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -887,6 +909,9 @@
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -912,6 +937,9 @@
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -931,7 +959,13 @@
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -947,6 +981,9 @@
       </c>
       <c r="C28" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
